--- a/public/sample/job_cluster.xlsx
+++ b/public/sample/job_cluster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="cluster" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>code</t>
   </si>
@@ -22,6 +22,9 @@
     <t>original_from_vod</t>
   </si>
   <si>
+    <t>video_codes</t>
+  </si>
+  <si>
     <t>cluster_01</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
     <t>១.ផ្នែកកសិកម្ម ស្បៀងអាហារ និងធនធានធម្មជាតិ</t>
   </si>
   <si>
+    <t>vdo_0033;vdo_0035;vdo_0038</t>
+  </si>
+  <si>
     <t>cluster_02</t>
   </si>
   <si>
@@ -40,6 +46,9 @@
     <t>២.ផ្នែកស្ថាបត្យកម្ម និងសំណង់</t>
   </si>
   <si>
+    <t>vdo_0023;vdo_0031;vdo_0043</t>
+  </si>
+  <si>
     <t>cluster_03</t>
   </si>
   <si>
@@ -49,6 +58,9 @@
     <t>៣.ផ្នែកសិល្បៈបច្ចេកវិទ្យា និងសារគមនាគមន៍</t>
   </si>
   <si>
+    <t>vdo_0007;vdo_0011;vdo_0012;vdo_0015;vdo_0019;vdo_0045;vdo_0047;vdo_0049;vdo_0050;vdo_0051</t>
+  </si>
+  <si>
     <t>cluster_04</t>
   </si>
   <si>
@@ -58,6 +70,9 @@
     <t>៤.ផែ្នកសេដ្ឋកិច្ច ពាណិជ្ជកម្ម និងរដ្ឋបាល</t>
   </si>
   <si>
+    <t>vdo_0013;vdo_0017;vdo_0026;vdo_0046</t>
+  </si>
+  <si>
     <t>cluster_05</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>៥.ផ្នែកអប់រំ និងបណ្តុះបណ្តាល</t>
   </si>
   <si>
+    <t>vdo_0027;vdo_0048;vdo_0052;vdo_0053;vdo_0054;vdo_0055;vdo_0056;vdo_0057;vdo_0058;vdo_0059</t>
+  </si>
+  <si>
     <t>cluster_06</t>
   </si>
   <si>
@@ -76,6 +94,9 @@
     <t>៦.ផ្នែកធនាគារ ហិរញ្ញវត្ថុ និងធានារ៉ាប់រង</t>
   </si>
   <si>
+    <t>vdo_0021;vdo_0030</t>
+  </si>
+  <si>
     <t>cluster_07</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>៨.ផ្នែកវិទ្យាសាស្រ្តសុខាភិបាល</t>
   </si>
   <si>
+    <t>vdo_0034;vdo_0036;vdo_0037;vdo_0041</t>
+  </si>
+  <si>
     <t>cluster_09</t>
   </si>
   <si>
@@ -103,6 +127,9 @@
     <t>៩.ផ្នែកបដិសណ្ឋារកិច្ច ទេសចរណ៍ និងកម្សាន្ត</t>
   </si>
   <si>
+    <t>vdo_0004;vdo_0024;vdo_0025;vdo_0028</t>
+  </si>
+  <si>
     <t>cluster_10</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>១០.ផ្នែកសេវាកម្មសាធារណជន</t>
   </si>
   <si>
+    <t>vdo_0009;vdo_0010;vdo_0029;vdo_0039;vdo_0044</t>
+  </si>
+  <si>
     <t>cluster_11</t>
   </si>
   <si>
@@ -121,6 +151,9 @@
     <t>១១.ផ្នែកបច្ចេកវិទ្យាព័ត៌មានវិទ្យា</t>
   </si>
   <si>
+    <t>vdo_0002;vdo_0005;vdo_0006;vdo_0008;vdo_0014;vdo_0022;vdo_0040;vdo_0042</t>
+  </si>
+  <si>
     <t>cluster_12</t>
   </si>
   <si>
@@ -148,6 +181,9 @@
     <t>១៤.ផែ្នកទីផ្សារ និងសេវាកម្មអតិថិជន</t>
   </si>
   <si>
+    <t>vdo_0001;vdo_0003</t>
+  </si>
+  <si>
     <t>cluster_15</t>
   </si>
   <si>
@@ -157,6 +193,9 @@
     <t>១៥.ផ្នែកវិទ្យាសាស្រ្ត បច្ចេកវិទ្យា វិស្វកម្ម និងគណិតសាស្រ្ត</t>
   </si>
   <si>
+    <t>vdo_0016;vdo_0018;vdo_0020</t>
+  </si>
+  <si>
     <t>cluster_16</t>
   </si>
   <si>
@@ -164,6 +203,9 @@
   </si>
   <si>
     <t>១៦.ផ្នែកដឹកជញ្ជូន និងចែកចាយ</t>
+  </si>
+  <si>
+    <t>vdo_0032</t>
   </si>
 </sst>
 </file>
@@ -462,181 +504,223 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample/job_cluster.xlsx
+++ b/public/sample/job_cluster.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="PP31DcP7Ao/Zugc3y3he7XOuQKgtbCSXLxnxH5fyQS4="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,91 +24,105 @@
     <t>name</t>
   </si>
   <si>
-    <t>original_from_vod</t>
-  </si>
-  <si>
     <t>video_codes</t>
   </si>
   <si>
+    <t>recommendation</t>
+  </si>
+  <si>
     <t>cluster_01</t>
   </si>
   <si>
     <t>ផ្នែកកសិកម្ម ស្បៀងអាហារ និងធនធានធម្មជាតិ</t>
   </si>
   <si>
-    <t>១.ផ្នែកកសិកម្ម ស្បៀងអាហារ និងធនធានធម្មជាតិ</t>
-  </si>
-  <si>
     <t>vdo_0033;vdo_0035;vdo_0038</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកកសិកម្ម ស្បៀងអាហារ និងធនធានធម្មជាតិ&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ តាមរយៈការបង្កើតសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំស្រឡាញ់រុក្ខជាតិទេ? ចូលចិត្តការដាំដុះដែរទេ? អាចធ្វើការងារជាមួយសត្វបានទេ? តើខ្ញុំពូកែលើមុខវិជ្ជាវិទ្យាសាស្រ្តដូចជាគីមវិទ្យា ជីវវិទ្យាជាដើមដែរទេ? អាចចេញធ្វើការខាងក្រៅដូចជាតាមកសិដ្ឋានជាដើមបានទេ? ស្រឡាញ់ការពារបរិស្ថានខ្លាំងទេ? អាចធ្វើការដោយប្រើដៃទទេ ឬប្រើឧបករណ៍គ្រឿងយន្តឬម៉ាស៊ីនធុនស្រាលនិងធ្ងន់បានទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_02</t>
   </si>
   <si>
     <t>ផ្នែកស្ថាបត្យកម្ម និងសំណង់</t>
   </si>
   <si>
-    <t>២.ផ្នែកស្ថាបត្យកម្ម និងសំណង់</t>
-  </si>
-  <si>
     <t>vdo_0023;vdo_0031;vdo_0043</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកស្ថាបត្យកម្ម និងសំណង់&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំពូកែលើមុខវិជ្ជាវិទ្យាសាស្រ្តដូចជាគណិតវិទ្យា រូបវិទ្យាជាដើមដែរទេ? អាចស្រមៃបង្កើតរូបភាពក្នុងលំហដែរឬទេ? ចេះគូររូបឬទេ? អាចធ្វើការនៅខាងក្រៅដូចជាតាមការដ្ឋានសាងសង់ជាដើមបានដែរទេ? អាចធ្វើការដោយប្រើដៃទទេ ឬប្រើឧបករណ៍គ្រឿងយន្តឬម៉ាស៊ីនធុនស្រាលនិងធ្ងន់បានទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_03</t>
   </si>
   <si>
     <t>ផ្នែកសិល្បៈបច្ចេកវិទ្យា និងសារគមនាគមន៍</t>
   </si>
   <si>
-    <t>៣.ផ្នែកសិល្បៈបច្ចេកវិទ្យា និងសារគមនាគមន៍</t>
-  </si>
-  <si>
     <t>vdo_0007;vdo_0011;vdo_0012;vdo_0015;vdo_0019;vdo_0045;vdo_0047;vdo_0049;vdo_0050;vdo_0051</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកសិល្បៈបច្ចេកវិទ្យា និងសារគមនាគមន៍&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំមានគំនិតច្នៃប្រឌិតឬបង្កើតថ្មីខ្ពស់ទេ? អាចស្រមៃបង្កើតរូបភាពក្នុងលំហដែរឬទេ? ចូលចិត្តគូររូប ឬច្រៀង ឬអាចសម្តែងនៅមុខមនុស្សច្រើនបានដែរទេ? ចូលចិត្តការតុបតែង លម្អសោភណភាព ឬបង្កើតរូបភាពសម្តែងទស្សនីយភាពណាមួយបានទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_04</t>
   </si>
   <si>
     <t>ផែ្នកសេដ្ឋកិច្ច ពាណិជ្ជកម្ម និងរដ្ឋបាល</t>
   </si>
   <si>
-    <t>៤.ផែ្នកសេដ្ឋកិច្ច ពាណិជ្ជកម្ម និងរដ្ឋបាល</t>
-  </si>
-  <si>
     <t>vdo_0013;vdo_0017;vdo_0026;vdo_0046</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកសេដ្ឋកិច្ច ពាណិជ្ជកម្ម និងរដ្ឋបាល&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តធ្វើការជាមួយមនុស្សច្រើនទេ? មានជំនាញអាន និងស្តាប់ដែរឬទេ? ចូលចិត្តភាពមានសណ្តាប់ធ្នាប់របៀបរៀបរយដែរទេ? ចូលចិត្តរៀបចំបង្កើតផែនការឬគម្រោងដែរទេ? ចូលចិត្តការងារបែបគ្រប់គ្រងឬភាពជាប្អូនដឹកនាំដែរទេ? ចាប់អារម្មណ៍ការងារប្រភេទអាជីវកម្មឬពាណិជ្ជកម្មដែរឬទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_05</t>
   </si>
   <si>
     <t>ផ្នែកអប់រំ និងបណ្តុះបណ្តាល</t>
   </si>
   <si>
-    <t>៥.ផ្នែកអប់រំ និងបណ្តុះបណ្តាល</t>
-  </si>
-  <si>
     <t>vdo_0027;vdo_0048;vdo_0052;vdo_0053;vdo_0054;vdo_0055;vdo_0056;vdo_0057;vdo_0058;vdo_0059</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកអប់រំ និងបណ្តុះបណ្តាល&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តប្រភេទការងារបង្ហាត់បង្រៀន អប់រំបណ្តុះបណ្តាល ឬបង្វឹកបង្វើនគេដែរឬទេ? ចូលចិត្តការអាន និងការស្តាប់ទេ? មានជំនាញសរសេរឬនិយាយពន្យល់បកស្រាយជាសាធារណៈដែរទេ? អាចធ្វើការជាក្រុមបានទេ? ចូលចូលស្រាវជ្រាវអភិវឌ្ឍសមត្ថភាពខ្លួនទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_06</t>
   </si>
   <si>
     <t>ផ្នែកធនាគារ ហិរញ្ញវត្ថុ និងធានារ៉ាប់រង</t>
   </si>
   <si>
-    <t>៦.ផ្នែកធនាគារ ហិរញ្ញវត្ថុ និងធានារ៉ាប់រង</t>
-  </si>
-  <si>
     <t>vdo_0021;vdo_0030</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកធនាគារ ហិរញ្ញវត្ថុ និងធានារ៉ាប់រង&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តនិងពូកែធ្វើការជាមួយលេខឬគណិតវិទ្យាដែរឬទេ? ចូលចិត្តធ្វើការជាមួយផ្នែកលុយកាក់ទេ? ចូលចិត្តសន្សំទុកដាក់លុយកាក់ដែរទេ? អាចធ្វើការងារផ្នែកវិនិយោគដែរទេ? យល់ដឹងអំពីការរៀបចំផែនការឬគម្រោងវិនិយោគអ្វីមួយដែរទេ? យល់ដឹងអំពីការរៀបចំរបាយការណ៍ហិរញ្ញវត្ថុដែរទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_07</t>
   </si>
   <si>
     <t>ផ្នែករដ្ឋាភិបាល និងរដ្ឋបាលសាធារណៈ</t>
   </si>
   <si>
-    <t>៧.ផ្នែករដ្ឋាភិបាល និងរដ្ឋបាលសាធារណៈ</t>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែករដ្ឋាភិបាល និងរដ្ឋបាលសាធារណៈ&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារផ្នែកច្បាប់ទេ? គិតថាកិច្ចការប្រភេទច្បាប់ គោលការណ៍ឬបទបញ្ជា មានសារៈសំខាន់យ៉ាងដូចម្តេចចំពោះប្អូន? ចូលចិត្តនិងឱ្យតម្លៃលើការងារប្រភេទបម្រើសេវាសាធារណៈដែរទេ? ចូលចិត្តនិងឱ្យតម្លៃលើការងារស្ម័គ្រចិត្តដែរទេ? ចូលចិត្តការងារផ្នែកគ្រប់គ្រងទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
   </si>
   <si>
     <t>cluster_08</t>
@@ -112,55 +131,65 @@
     <t>ផ្នែកវិទ្យាសាស្រ្តសុខាភិបាល</t>
   </si>
   <si>
-    <t>៨.ផ្នែកវិទ្យាសាស្រ្តសុខាភិបាល</t>
-  </si>
-  <si>
     <t>vdo_0034;vdo_0036;vdo_0037;vdo_0041</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកវិទ្យាសាស្រ្តសុខាភិបាល&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារជួយអ្នកដទៃដែរឬទេ? យកចិត្តទុកដាក់ចំពោះការថែទាំសុខភាពដែរទេ? ពូកែមុខវិជ្ជាវិទ្យាសាស្រ្តដូចជា ជីវវិទ្យា គីមីវិទ្យាដែរឬទេ? ជាមនុស្សមានស្មារតីរឹងមាំល្អដែរទេ? ការចងចាំល្អ ហ្មត់ចត់ ច្បាស់លាស់ និងមានទំនួលខុសត្រូវខ្ពស់ដែរទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_09</t>
   </si>
   <si>
     <t>ផ្នែកបដិសណ្ឋារកិច្ច ទេសចរណ៍ និងកម្សាន្ត</t>
   </si>
   <si>
-    <t>៩.ផ្នែកបដិសណ្ឋារកិច្ច ទេសចរណ៍ និងកម្សាន្ត</t>
-  </si>
-  <si>
     <t>vdo_0004;vdo_0024;vdo_0025;vdo_0028</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកបដិសណ្ឋារកិច្ច ទេសចរណ៍ និងកម្សាន្ត&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារផ្នែកច្បាប់ទេ? គិតថាកិច្ចការប្រភេទច្បាប់ គោលការណ៍ឬបទបញ្ជា មានសារៈសំខាន់ចំពោះប្អូន? ចូលចិត្តនិងឱ្យតម្លៃលើការងារប្រភេទបម្រើសេវាសាធារណៈដែរទេ? ចូលចិត្តនិងឱ្យតម្លៃលើការងារស្ម័គ្រចិត្តដែរទេ? ចូលចិត្តការងារផ្នែកគ្រប់គ្រងទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_10</t>
   </si>
   <si>
     <t>ផ្នែកសេវាកម្មសាធារណជន</t>
   </si>
   <si>
-    <t>១០.ផ្នែកសេវាកម្មសាធារណជន</t>
-  </si>
-  <si>
     <t>vdo_0009;vdo_0010;vdo_0029;vdo_0039;vdo_0044</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកសេវាកម្មសាធារណជន&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តដំណើរកម្សាន្តដែរទេ? ចង់ធ្វើការងារប្រភេទកម្សាន្តសប្បាយទេ? ចូលចិត្តបង្កើតភាពរីករាយដល់អ្នកដទៃទេ? មានបំណិនផ្នែកបដិសណ្ឋារកិច្ចឬការចម្អិនម្ហូបអាហារជាដើមដែរទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_11</t>
   </si>
   <si>
     <t>ផ្នែកបច្ចេកវិទ្យាព័ត៌មានវិទ្យា</t>
   </si>
   <si>
-    <t>១១.ផ្នែកបច្ចេកវិទ្យាព័ត៌មានវិទ្យា</t>
-  </si>
-  <si>
     <t>vdo_0002;vdo_0005;vdo_0006;vdo_0008;vdo_0014;vdo_0022;vdo_0040;vdo_0042</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកបច្ចេកវិទ្យាព័ត៌មានវិទ្យា&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារផ្នែកកុំព្យូទ័រឬព័ត៌មានវិទ្យាទេ?  តើខ្ញុំមានចំណេះដឹងផ្នែកកុំព្យូទ័រនិងភាសាអង់គ្លេសកម្រិតណាដែរ? តើខ្ញុំជាប្រភេទមនុស្សពូកែក្នុងការដោះស្រាយបញ្ហាទេ? ចូលចិត្តនិងឱ្យតម្លៃលើការងារប្រភេទបង្កើតថ្មីដែរទេ? អាចអង្គុយធ្វើការមុខកុំព្យូទ័រច្រើនម៉ោងក្នុងមួយថ្ងៃៗបានដែរឬទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_12</t>
   </si>
   <si>
     <t>ផ្នែកច្បាប់និងសុវត្ថិភាពសង្គម</t>
   </si>
   <si>
-    <t>១២.ផ្នែកច្បាប់និងសុវត្ថិភាពសង្គម</t>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកច្បាប់និងសុវត្ថិភាពសង្គម&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារផ្នែកច្បាប់ទេ? គិតថាកិច្ចការប្រភេទច្បាប់ គោលការណ៍ឬបទបញ្ជា មានសារៈសំខាន់ចំពោះប្អូនដូចម្តេចដែរ? ខ្ញុំពូកែលើមុខវិជ្ជាប្រភេទថ្នាក់វិទ្យាសាស្រ្តសង្គមឬប្រភេទទន្ទេញដែរទេ? ចូលចិត្តនិងឱ្យតម្លៃលើការងារប្រភេទបម្រើសេវាសាធារណៈដែរទេ? ចូលចិត្តនិងឱ្យតម្លៃលើការងារជួយការពារអ្នកដទៃពីការបៀតបៀនប៉ះពាល់ ហិង្សា ឬគ្រោះធម្មជាតិដែរទេ? អាចអត់ធន់នឹងការងារក្រោមសម្ពាធដែរទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
   </si>
   <si>
     <t>cluster_13</t>
@@ -169,7 +198,9 @@
     <t>ផ្នែកកម្មន្តសាល</t>
   </si>
   <si>
-    <t>១៣.ផ្នែកកម្មន្តសាល</t>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកកម្មន្តសាល&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារផ្នែកផលិតកម្ម ឬការបង្កើតអ្វីមួយដែរឬទេ? ចូលចិត្តប្រភេទការងារដែលប្រើកម្លាំងកាយសម្បទាច្រើនដែរទេ?ការបបំពេញការងារដោយដៃផ្ទាល់? ដោយគ្រឿងម៉ាស៊ីន? ការធ្វើការក្នុងរោងចក្រឬសហគ្រាស? បរិយាកាសការងារមានសំឡេងឬក្លិនរំខានច្រើន? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
   </si>
   <si>
     <t>cluster_14</t>
@@ -178,34 +209,40 @@
     <t>ផែ្នកទីផ្សារ និងសេវាកម្មអតិថិជន</t>
   </si>
   <si>
-    <t>១៤.ផែ្នកទីផ្សារ និងសេវាកម្មអតិថិជន</t>
-  </si>
-  <si>
     <t>vdo_0001;vdo_0003</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកទីផ្សារ និងសេវាកម្មអតិថិជន&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តឬពូកែក្នុងការងារបែបប្រាស្រ័យទាក់ទងជាមួយមនុស្សច្រើនទេ? ការងារផ្នែកទិញ លក់ ឬជួលសេវាកម្ម? ចូលចិត្តនិងឱ្យតម្លៃលើការងារប្រភេទបម្រើសេវាសាធារណៈដែរទេ? ពូកែនិយាយជាសាធារណៈ ឬបញ្ចុះបញ្ចូលគេទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_15</t>
   </si>
   <si>
     <t>ផ្នែកវិទ្យាសាស្រ្ត បច្ចេកវិទ្យា វិស្វកម្ម និងគណិតសាស្រ្ត</t>
   </si>
   <si>
-    <t>១៥.ផ្នែកវិទ្យាសាស្រ្ត បច្ចេកវិទ្យា វិស្វកម្ម និងគណិតសាស្រ្ត</t>
-  </si>
-  <si>
     <t>vdo_0016;vdo_0018;vdo_0020</t>
   </si>
   <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកវិទ្យាសាស្រ្ត បច្ចេកវិទ្យា វិស្វកម្ម និងគណិតសាស្រ្ត&lt;b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តនិងពូកែលើមុខវិជ្ជាប្រភេទវិទ្យាសាស្រ្តទេ? ចូលចិត្តនិងឱ្យតម្លៃការងារបែបការបង្កើតថ្មីទេ? ការពិសោធ? ការដោះសា្រយបញ្ហា? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>cluster_16</t>
   </si>
   <si>
     <t>ផ្នែកដឹកជញ្ជូន និងចែកចាយ</t>
   </si>
   <si>
-    <t>១៦.ផ្នែកដឹកជញ្ជូន និងចែកចាយ</t>
-  </si>
-  <si>
     <t>vdo_0032</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;អាជីពមុខរបរដែលប្អូនបានជ្រើសរើសនេះ ស្ថិតក្នុងប្រភេទ &lt;b&gt;ផ្នែកដឹកជញ្ជូន និងចែកចាយ&lt;/b&gt; ដូចនេះដើម្បីប្រាកដថាប្អូនពិតជាចង់ចាប់យកអាជីពនេះជាមុខរបរអចិន្ត្រៃយ៍នាពេលអនាគត ប្អូនគួរស្វែងយល់ពីខ្លួនឯងឱ្យកាន់តែច្បាស់ដូចជាសួរសំណួរមួយចំនួនអំពីខ្លួនឯងដូចជា តើខ្ញុំចូលចិត្តការងារប្រភេទធ្វើដំណើរច្រើនទេ? ការបើកបរដោយខ្លួនឯង? រៀនពូកែលើមុខវិជ្ជាភូមិសាស្រ្ត ឬគណិតសាស្រ្តដែរឬទេ? រួមទាំងសំណួរពាក់ព័ន្ធជាច្រើនផ្សេងទៀត។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;ចូរប្អូនសិក្សាលើចំណុចពាក់ព័ន្ធផ្សេងទៀតក្នុងអាជីពមុខរបរនេះ ដូចជានិន្នាការនៃតម្រូវការកម្លាំងពលកម្មក្នុងទីផ្សារការងារ បម្រែបម្រួលសេដ្ឋកិច្ច-នយោបាយ ភាពរីកចម្រើននៃបច្ចេកវិទ្យាជាដើម ដើម្បីប្រាកដថាប្អូនអាចទទួលភាពជោគជ័យក្នុងការចាប់យកអាជីពមួយនេះ។ បន្ទាប់ពីនេះ ចូរប្អូនរៀបចំផែនការគោលដៅអាជីពផ្ទាល់ខ្លួន រួមទាំងគោលដៅជំនាញសិក្សានៅឧត្តមសិក្សាផងដែរ។&lt;/div&gt;&lt;br&gt;
+&lt;div&gt;សូមជូនពរប្អូនទទួលបានជោគជ័យក្នុងអាជីពមុខរបរដែលប្អូនបានជ្រើសរើសដោយភាពច្បាស់លាស់នេះ។&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -215,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-12000425]0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -226,17 +263,20 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Siemreap"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Siemreap"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,21 +299,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,239 +537,3195 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="41.13"/>
+    <col customWidth="1" min="1" max="1" width="8.75"/>
+    <col customWidth="1" min="2" max="2" width="37.75"/>
+    <col customWidth="1" min="3" max="3" width="29.13"/>
+    <col customWidth="1" min="4" max="4" width="20.25"/>
+    <col customWidth="1" min="5" max="5" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="C103" s="8"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="C257" s="8"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="C259" s="8"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="C260" s="8"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="C261" s="8"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="C262" s="8"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="C263" s="8"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="C264" s="8"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="C265" s="8"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="C266" s="8"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="C267" s="8"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="C268" s="8"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="C269" s="8"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="C270" s="8"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="C271" s="8"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="C272" s="8"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="C273" s="8"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="C274" s="8"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="C275" s="8"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="C276" s="8"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="C277" s="8"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="C278" s="8"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="C279" s="8"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="C280" s="8"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="C281" s="8"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="C282" s="8"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="C283" s="8"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="C284" s="8"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="C285" s="8"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="C286" s="8"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="C287" s="8"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="C288" s="8"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="C289" s="8"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="C290" s="8"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="C291" s="8"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="C292" s="8"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="C293" s="8"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="C294" s="8"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="C295" s="8"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="C296" s="8"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="C297" s="8"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="C298" s="8"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="C299" s="8"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="C300" s="8"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="C301" s="8"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="C302" s="8"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="C303" s="8"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="C304" s="8"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="C305" s="8"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="C306" s="8"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="C307" s="8"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="C308" s="8"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="C309" s="8"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="C310" s="8"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="C311" s="8"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="C312" s="8"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="C313" s="8"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="C314" s="8"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="C315" s="8"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="C316" s="8"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="C317" s="8"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="C318" s="8"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="C319" s="8"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="C320" s="8"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="C321" s="8"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="C322" s="8"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="C323" s="8"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="C324" s="8"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="C325" s="8"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="C326" s="8"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="C327" s="8"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="C328" s="8"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="C329" s="8"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="C330" s="8"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="C331" s="8"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="C332" s="8"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="C333" s="8"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="C334" s="8"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="C335" s="8"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="C336" s="8"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="C337" s="8"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="C338" s="8"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="C339" s="8"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="C340" s="8"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="C341" s="8"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="C342" s="8"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="C343" s="8"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="C344" s="8"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="C345" s="8"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="C346" s="8"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="C347" s="8"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="C348" s="8"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="C349" s="8"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="C350" s="8"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="C351" s="8"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="C352" s="8"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="C353" s="8"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="C354" s="8"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="C355" s="8"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="C356" s="8"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="C357" s="8"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="C358" s="8"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="C359" s="8"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="C360" s="8"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="C361" s="8"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="C362" s="8"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="C363" s="8"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="C364" s="8"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="C365" s="8"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="C366" s="8"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="C367" s="8"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="C368" s="8"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="C369" s="8"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="C370" s="8"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="C371" s="8"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="C372" s="8"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="C373" s="8"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="C374" s="8"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="C375" s="8"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="C376" s="8"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="C377" s="8"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="C378" s="8"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="C379" s="8"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="C380" s="8"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="C381" s="8"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="C382" s="8"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="C383" s="8"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="C384" s="8"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="C385" s="8"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="C386" s="8"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="C387" s="8"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="C388" s="8"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="C389" s="8"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="C390" s="8"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="C391" s="8"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="C392" s="8"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="C393" s="8"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="C394" s="8"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="C395" s="8"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="C396" s="8"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="C397" s="8"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="C398" s="8"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="C399" s="8"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="C400" s="8"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="C401" s="8"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="C402" s="8"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="C403" s="8"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="C404" s="8"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="C405" s="8"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="C406" s="8"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="C407" s="8"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="C408" s="8"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="C409" s="8"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="C410" s="8"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="C411" s="8"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="C412" s="8"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="C413" s="8"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="C414" s="8"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="C415" s="8"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="C416" s="8"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="C417" s="8"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="C418" s="8"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="C419" s="8"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="C420" s="8"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="C421" s="8"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="C422" s="8"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="C423" s="8"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="C424" s="8"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="C425" s="8"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="C426" s="8"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="C427" s="8"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="C428" s="8"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="C429" s="8"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="C430" s="8"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="C431" s="8"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="C432" s="8"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="C433" s="8"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="C434" s="8"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="C435" s="8"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="C436" s="8"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="C437" s="8"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="C438" s="8"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="C439" s="8"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="C440" s="8"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="C441" s="8"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="C442" s="8"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="C443" s="8"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="C444" s="8"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="C445" s="8"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="C446" s="8"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="C447" s="8"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="C448" s="8"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="C449" s="8"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="C450" s="8"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="C451" s="8"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="C452" s="8"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="C453" s="8"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="C454" s="8"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="C455" s="8"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="C456" s="8"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="C457" s="8"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="C458" s="8"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="C459" s="8"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="C460" s="8"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="C461" s="8"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="C462" s="8"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="C463" s="8"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="C464" s="8"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="C465" s="8"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="C466" s="8"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="C467" s="8"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="C468" s="8"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="C469" s="8"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="C470" s="8"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="C471" s="8"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="C472" s="8"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="C473" s="8"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="C474" s="8"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="C475" s="8"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="C476" s="8"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="C479" s="8"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="C527" s="8"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="C536" s="8"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="C537" s="8"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="C539" s="8"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="C540" s="8"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="C541" s="8"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="C542" s="8"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="C543" s="8"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="C544" s="8"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="C545" s="8"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="C546" s="8"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="C547" s="8"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="C548" s="8"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="C549" s="8"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="C550" s="8"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="C551" s="8"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="C552" s="8"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="C553" s="8"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="C554" s="8"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="C555" s="8"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="C556" s="8"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="C557" s="8"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="C558" s="8"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="C559" s="8"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="C560" s="8"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="C561" s="8"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="C562" s="8"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="C563" s="8"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="C564" s="8"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="C565" s="8"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="C566" s="8"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="C567" s="8"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="C568" s="8"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="C569" s="8"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="C570" s="8"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="C571" s="8"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="C572" s="8"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="C573" s="8"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="C574" s="8"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="C575" s="8"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="C576" s="8"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="C577" s="8"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="C578" s="8"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="C579" s="8"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="C580" s="8"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="C581" s="8"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="C582" s="8"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="C583" s="8"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="C584" s="8"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="C585" s="8"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="C586" s="8"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="C587" s="8"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="C588" s="8"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="C589" s="8"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="C590" s="8"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="C591" s="8"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="C592" s="8"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="C593" s="8"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="C594" s="8"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="C595" s="8"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="C596" s="8"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="C597" s="8"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="C598" s="8"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="C599" s="8"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="C600" s="8"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="C601" s="8"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="C602" s="8"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="C603" s="8"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="C604" s="8"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="C605" s="8"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="C606" s="8"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="C607" s="8"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="C608" s="8"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="C609" s="8"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="C610" s="8"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="C611" s="8"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="C612" s="8"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="C613" s="8"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="C614" s="8"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="C615" s="8"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="C616" s="8"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="C617" s="8"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="C618" s="8"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="C619" s="8"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="C620" s="8"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="C621" s="8"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="C622" s="8"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="C623" s="8"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="C624" s="8"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="C625" s="8"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="C626" s="8"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="C627" s="8"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="C628" s="8"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="C629" s="8"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="C630" s="8"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="C631" s="8"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="C632" s="8"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="C633" s="8"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="C634" s="8"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="C635" s="8"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="C636" s="8"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="C637" s="8"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="C638" s="8"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="C639" s="8"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="C640" s="8"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="C641" s="8"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="C642" s="8"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="C643" s="8"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="C644" s="8"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="C645" s="8"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="C646" s="8"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="C647" s="8"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="C648" s="8"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="C649" s="8"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="C650" s="8"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="C651" s="8"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="C652" s="8"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="C653" s="8"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="C654" s="8"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="C655" s="8"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="C656" s="8"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="C657" s="8"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="C658" s="8"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="C659" s="8"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="C660" s="8"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="C661" s="8"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="C662" s="8"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="C663" s="8"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="C664" s="8"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="C665" s="8"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="C666" s="8"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="C667" s="8"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="C668" s="8"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="C669" s="8"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="C670" s="8"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="C671" s="8"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="C672" s="8"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="C673" s="8"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="C674" s="8"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="C675" s="8"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="C676" s="8"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="C677" s="8"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="C678" s="8"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="C679" s="8"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="C680" s="8"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="C681" s="8"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="C682" s="8"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="C683" s="8"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="C684" s="8"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="C685" s="8"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="C686" s="8"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="C687" s="8"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="C688" s="8"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="C689" s="8"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="C690" s="8"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="C691" s="8"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="C692" s="8"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="C693" s="8"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="C694" s="8"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="C695" s="8"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="C696" s="8"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="C697" s="8"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="C698" s="8"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="C699" s="8"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="C700" s="8"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="C701" s="8"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="C702" s="8"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="C703" s="8"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="C704" s="8"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="C705" s="8"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="C706" s="8"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="C707" s="8"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="C708" s="8"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="C709" s="8"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="C710" s="8"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="C711" s="8"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="C712" s="8"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="C713" s="8"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="C714" s="8"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="C715" s="8"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="C716" s="8"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="C717" s="8"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="C718" s="8"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="C719" s="8"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="C720" s="8"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="C721" s="8"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="C722" s="8"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="C723" s="8"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="C724" s="8"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="C725" s="8"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="C726" s="8"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="C727" s="8"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="C728" s="8"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="C729" s="8"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="C730" s="8"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="C731" s="8"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="C732" s="8"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="C733" s="8"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="C734" s="8"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="C735" s="8"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="C736" s="8"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="C737" s="8"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="C738" s="8"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="C739" s="8"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="C740" s="8"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="C741" s="8"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="C742" s="8"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="C743" s="8"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="C744" s="8"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="C745" s="8"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="C746" s="8"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="C747" s="8"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="C748" s="8"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="C749" s="8"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="C750" s="8"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="C751" s="8"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="C752" s="8"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="C753" s="8"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="C754" s="8"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="C755" s="8"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="C756" s="8"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="C757" s="8"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="C758" s="8"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="C759" s="8"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="C760" s="8"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="C761" s="8"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="C762" s="8"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="C763" s="8"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="C764" s="8"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="C765" s="8"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="C766" s="8"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="C767" s="8"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="C768" s="8"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="C769" s="8"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="C770" s="8"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="C771" s="8"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="C772" s="8"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="C773" s="8"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="C774" s="8"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="C775" s="8"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="C776" s="8"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="C777" s="8"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="C778" s="8"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="C779" s="8"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="C780" s="8"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="C781" s="8"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="C782" s="8"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="C783" s="8"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="C784" s="8"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="C785" s="8"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="C786" s="8"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="C787" s="8"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="C788" s="8"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="C789" s="8"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="C790" s="8"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="C791" s="8"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="C792" s="8"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="C793" s="8"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="C794" s="8"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="C795" s="8"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="C796" s="8"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="C797" s="8"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="C798" s="8"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="C799" s="8"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="C800" s="8"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="C801" s="8"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="C802" s="8"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="C803" s="8"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="C804" s="8"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="C805" s="8"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="C806" s="8"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="C807" s="8"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="C808" s="8"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="C809" s="8"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="C810" s="8"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="C811" s="8"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="C812" s="8"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="C813" s="8"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="C814" s="8"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="C815" s="8"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="C816" s="8"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="C817" s="8"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="C818" s="8"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="C819" s="8"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="C820" s="8"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="C821" s="8"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="C822" s="8"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="C823" s="8"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="C824" s="8"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="C825" s="8"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="C826" s="8"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="C827" s="8"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="C828" s="8"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="C829" s="8"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="C830" s="8"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="C831" s="8"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="C832" s="8"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="C833" s="8"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="C834" s="8"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="C835" s="8"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="C836" s="8"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="C837" s="8"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="C838" s="8"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="C839" s="8"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="C840" s="8"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="C841" s="8"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="C842" s="8"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="C843" s="8"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="C844" s="8"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="C845" s="8"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="C846" s="8"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="C847" s="8"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="C848" s="8"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="C849" s="8"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="C850" s="8"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="C851" s="8"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="C852" s="8"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="C853" s="8"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="C854" s="8"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="C855" s="8"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="C856" s="8"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="C857" s="8"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="C858" s="8"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="C859" s="8"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="C860" s="8"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="C861" s="8"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="C862" s="8"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="C863" s="8"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="C864" s="8"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="C865" s="8"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="C866" s="8"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="C867" s="8"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="C868" s="8"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="C869" s="8"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="C870" s="8"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="C871" s="8"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="C872" s="8"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="C873" s="8"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="C874" s="8"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="C875" s="8"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="C876" s="8"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="C877" s="8"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="C878" s="8"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="C879" s="8"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="C880" s="8"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="C881" s="8"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="C882" s="8"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="C883" s="8"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="C884" s="8"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="C885" s="8"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="C886" s="8"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="C887" s="8"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="C888" s="8"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="C889" s="8"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="C890" s="8"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="C891" s="8"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="C892" s="8"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="C893" s="8"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="C894" s="8"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="C895" s="8"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="C896" s="8"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="C897" s="8"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="C898" s="8"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="C899" s="8"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="C900" s="8"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="C901" s="8"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="C902" s="8"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="C903" s="8"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="C904" s="8"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="C905" s="8"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="C906" s="8"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="C907" s="8"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="C908" s="8"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="C909" s="8"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="C910" s="8"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="C911" s="8"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="C912" s="8"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="C913" s="8"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="C914" s="8"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="C915" s="8"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="C916" s="8"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="C917" s="8"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="C918" s="8"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="C919" s="8"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="C920" s="8"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="C921" s="8"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="C922" s="8"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="C923" s="8"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="C924" s="8"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="C925" s="8"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="C926" s="8"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="C927" s="8"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="C928" s="8"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="C929" s="8"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="C930" s="8"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="C931" s="8"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="C932" s="8"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="C933" s="8"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="C934" s="8"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="C935" s="8"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="C936" s="8"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="C937" s="8"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="C938" s="8"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="C939" s="8"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="C940" s="8"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="C941" s="8"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="C942" s="8"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="C943" s="8"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="C944" s="8"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="C945" s="8"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="C946" s="8"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="C947" s="8"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="C948" s="8"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="C949" s="8"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="C950" s="8"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="C951" s="8"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="C952" s="8"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="C953" s="8"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="C954" s="8"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="C955" s="8"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="C956" s="8"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="C957" s="8"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="C958" s="8"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="C959" s="8"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="C960" s="8"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="C961" s="8"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="C962" s="8"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="C963" s="8"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="C964" s="8"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="C965" s="8"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="C966" s="8"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="C967" s="8"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="C968" s="8"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="C969" s="8"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="C970" s="8"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="C971" s="8"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="C972" s="8"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="C973" s="8"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="C974" s="8"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="C975" s="8"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="C976" s="8"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="C977" s="8"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="C978" s="8"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="C979" s="8"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="C980" s="8"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="C981" s="8"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="C982" s="8"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="C983" s="8"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="C984" s="8"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="C985" s="8"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="C986" s="8"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="C987" s="8"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="C988" s="8"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="C989" s="8"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="C990" s="8"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="C991" s="8"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="C992" s="8"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="C993" s="8"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="C994" s="8"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="C995" s="8"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="C996" s="8"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="C997" s="8"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="C998" s="8"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="C999" s="8"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="C1000" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
